--- a/data/144/SCB/NR0103ENS2010T06Kv.xlsx
+++ b/data/144/SCB/NR0103ENS2010T06Kv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <x:si>
     <x:t>GPD: production approach (ESA2010), constant prices reference year 2020, SEK million by industrial classification NACE Rev. 2 and quarter</x:t>
   </x:si>
@@ -520,6 +520,9 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>C10-C33 manufacturing industry</x:t>
   </x:si>
   <x:si>
@@ -538,7 +541,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211129 09:30</x:t>
+    <x:t>20220228 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -607,7 +610,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="0"/>
+    <x:numFmt numFmtId="165" formatCode="0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -661,48 +664,42 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -713,7 +710,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -996,27 +993,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FL47"/>
+  <x:dimension ref="A1:FM47"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="168" width="9.130625" style="0" customWidth="1"/>
+    <x:col min="1" max="169" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:168">
+    <x:row r="1" spans="1:169">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:168">
+    <x:row r="3" spans="1:169">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1518,653 +1514,655 @@
       <x:c r="FL3" s="2" t="s">
         <x:v>167</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:168">
+      <x:c r="FM3" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:169">
       <x:c r="A4" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F4" s="4" t="n">
-        <x:v>55959</x:v>
+        <x:v>55993</x:v>
       </x:c>
       <x:c r="G4" s="4" t="n">
-        <x:v>63516</x:v>
+        <x:v>63555</x:v>
       </x:c>
       <x:c r="H4" s="4" t="n">
-        <x:v>56161</x:v>
+        <x:v>56195</x:v>
       </x:c>
       <x:c r="I4" s="4" t="n">
-        <x:v>70028</x:v>
+        <x:v>70072</x:v>
       </x:c>
       <x:c r="J4" s="4" t="n">
-        <x:v>60620</x:v>
+        <x:v>60657</x:v>
       </x:c>
       <x:c r="K4" s="4" t="n">
-        <x:v>64598</x:v>
+        <x:v>64638</x:v>
       </x:c>
       <x:c r="L4" s="4" t="n">
-        <x:v>53155</x:v>
+        <x:v>53188</x:v>
       </x:c>
       <x:c r="M4" s="4" t="n">
-        <x:v>66517</x:v>
+        <x:v>66557</x:v>
       </x:c>
       <x:c r="N4" s="4" t="n">
-        <x:v>65081</x:v>
+        <x:v>65121</x:v>
       </x:c>
       <x:c r="O4" s="4" t="n">
-        <x:v>66299</x:v>
+        <x:v>66339</x:v>
       </x:c>
       <x:c r="P4" s="4" t="n">
-        <x:v>56886</x:v>
+        <x:v>56921</x:v>
       </x:c>
       <x:c r="Q4" s="4" t="n">
-        <x:v>70838</x:v>
+        <x:v>70882</x:v>
       </x:c>
       <x:c r="R4" s="4" t="n">
-        <x:v>72225</x:v>
+        <x:v>72269</x:v>
       </x:c>
       <x:c r="S4" s="4" t="n">
-        <x:v>72476</x:v>
+        <x:v>72520</x:v>
       </x:c>
       <x:c r="T4" s="4" t="n">
-        <x:v>60209</x:v>
+        <x:v>60246</x:v>
       </x:c>
       <x:c r="U4" s="4" t="n">
-        <x:v>78101</x:v>
+        <x:v>78150</x:v>
       </x:c>
       <x:c r="V4" s="4" t="n">
-        <x:v>67936</x:v>
+        <x:v>67978</x:v>
       </x:c>
       <x:c r="W4" s="4" t="n">
-        <x:v>77923</x:v>
+        <x:v>77971</x:v>
       </x:c>
       <x:c r="X4" s="4" t="n">
-        <x:v>65511</x:v>
+        <x:v>65551</x:v>
       </x:c>
       <x:c r="Y4" s="4" t="n">
-        <x:v>79739</x:v>
+        <x:v>79788</x:v>
       </x:c>
       <x:c r="Z4" s="4" t="n">
-        <x:v>72728</x:v>
+        <x:v>72773</x:v>
       </x:c>
       <x:c r="AA4" s="4" t="n">
-        <x:v>77935</x:v>
+        <x:v>77983</x:v>
       </x:c>
       <x:c r="AB4" s="4" t="n">
-        <x:v>64086</x:v>
+        <x:v>64126</x:v>
       </x:c>
       <x:c r="AC4" s="4" t="n">
-        <x:v>79309</x:v>
+        <x:v>79357</x:v>
       </x:c>
       <x:c r="AD4" s="4" t="n">
-        <x:v>72887</x:v>
+        <x:v>72932</x:v>
       </x:c>
       <x:c r="AE4" s="4" t="n">
-        <x:v>78343</x:v>
+        <x:v>78391</x:v>
       </x:c>
       <x:c r="AF4" s="4" t="n">
-        <x:v>66539</x:v>
+        <x:v>66580</x:v>
       </x:c>
       <x:c r="AG4" s="4" t="n">
-        <x:v>83211</x:v>
+        <x:v>83262</x:v>
       </x:c>
       <x:c r="AH4" s="4" t="n">
-        <x:v>77609</x:v>
+        <x:v>77656</x:v>
       </x:c>
       <x:c r="AI4" s="4" t="n">
-        <x:v>81665</x:v>
+        <x:v>81715</x:v>
       </x:c>
       <x:c r="AJ4" s="4" t="n">
-        <x:v>66992</x:v>
+        <x:v>67034</x:v>
       </x:c>
       <x:c r="AK4" s="4" t="n">
-        <x:v>84656</x:v>
+        <x:v>84708</x:v>
       </x:c>
       <x:c r="AL4" s="4" t="n">
-        <x:v>77272</x:v>
+        <x:v>77319</x:v>
       </x:c>
       <x:c r="AM4" s="4" t="n">
-        <x:v>82610</x:v>
+        <x:v>82660</x:v>
       </x:c>
       <x:c r="AN4" s="4" t="n">
-        <x:v>67052</x:v>
+        <x:v>67093</x:v>
       </x:c>
       <x:c r="AO4" s="4" t="n">
-        <x:v>83844</x:v>
+        <x:v>83897</x:v>
       </x:c>
       <x:c r="AP4" s="4" t="n">
-        <x:v>73614</x:v>
+        <x:v>73660</x:v>
       </x:c>
       <x:c r="AQ4" s="4" t="n">
-        <x:v>81555</x:v>
+        <x:v>81605</x:v>
       </x:c>
       <x:c r="AR4" s="4" t="n">
-        <x:v>67417</x:v>
+        <x:v>67459</x:v>
       </x:c>
       <x:c r="AS4" s="4" t="n">
-        <x:v>83258</x:v>
+        <x:v>83308</x:v>
       </x:c>
       <x:c r="AT4" s="4" t="n">
-        <x:v>75850</x:v>
+        <x:v>75896</x:v>
       </x:c>
       <x:c r="AU4" s="4" t="n">
-        <x:v>77415</x:v>
+        <x:v>77462</x:v>
       </x:c>
       <x:c r="AV4" s="4" t="n">
-        <x:v>64332</x:v>
+        <x:v>64372</x:v>
       </x:c>
       <x:c r="AW4" s="4" t="n">
-        <x:v>75993</x:v>
+        <x:v>76041</x:v>
       </x:c>
       <x:c r="AX4" s="4" t="n">
-        <x:v>73157</x:v>
+        <x:v>73202</x:v>
       </x:c>
       <x:c r="AY4" s="4" t="n">
-        <x:v>73665</x:v>
+        <x:v>73711</x:v>
       </x:c>
       <x:c r="AZ4" s="4" t="n">
-        <x:v>63881</x:v>
+        <x:v>63920</x:v>
       </x:c>
       <x:c r="BA4" s="4" t="n">
-        <x:v>70062</x:v>
+        <x:v>70105</x:v>
       </x:c>
       <x:c r="BB4" s="4" t="n">
-        <x:v>69287</x:v>
+        <x:v>69329</x:v>
       </x:c>
       <x:c r="BC4" s="4" t="n">
-        <x:v>73684</x:v>
+        <x:v>73730</x:v>
       </x:c>
       <x:c r="BD4" s="4" t="n">
-        <x:v>63436</x:v>
+        <x:v>63475</x:v>
       </x:c>
       <x:c r="BE4" s="4" t="n">
-        <x:v>75243</x:v>
+        <x:v>75289</x:v>
       </x:c>
       <x:c r="BF4" s="4" t="n">
-        <x:v>81155</x:v>
+        <x:v>81205</x:v>
       </x:c>
       <x:c r="BG4" s="4" t="n">
-        <x:v>84408</x:v>
+        <x:v>84460</x:v>
       </x:c>
       <x:c r="BH4" s="4" t="n">
-        <x:v>70993</x:v>
+        <x:v>71036</x:v>
       </x:c>
       <x:c r="BI4" s="4" t="n">
-        <x:v>89360</x:v>
+        <x:v>89416</x:v>
       </x:c>
       <x:c r="BJ4" s="4" t="n">
-        <x:v>97943</x:v>
+        <x:v>98003</x:v>
       </x:c>
       <x:c r="BK4" s="4" t="n">
-        <x:v>95191</x:v>
+        <x:v>95250</x:v>
       </x:c>
       <x:c r="BL4" s="4" t="n">
-        <x:v>78833</x:v>
+        <x:v>78882</x:v>
       </x:c>
       <x:c r="BM4" s="4" t="n">
-        <x:v>97084</x:v>
+        <x:v>97144</x:v>
       </x:c>
       <x:c r="BN4" s="4" t="n">
-        <x:v>101651</x:v>
+        <x:v>101713</x:v>
       </x:c>
       <x:c r="BO4" s="4" t="n">
-        <x:v>98583</x:v>
+        <x:v>98644</x:v>
       </x:c>
       <x:c r="BP4" s="4" t="n">
-        <x:v>82152</x:v>
+        <x:v>82203</x:v>
       </x:c>
       <x:c r="BQ4" s="4" t="n">
-        <x:v>100026</x:v>
+        <x:v>100088</x:v>
       </x:c>
       <x:c r="BR4" s="4" t="n">
-        <x:v>101551</x:v>
+        <x:v>101614</x:v>
       </x:c>
       <x:c r="BS4" s="4" t="n">
-        <x:v>107420</x:v>
+        <x:v>107486</x:v>
       </x:c>
       <x:c r="BT4" s="4" t="n">
-        <x:v>92093</x:v>
+        <x:v>92150</x:v>
       </x:c>
       <x:c r="BU4" s="4" t="n">
-        <x:v>113440</x:v>
+        <x:v>113510</x:v>
       </x:c>
       <x:c r="BV4" s="4" t="n">
-        <x:v>113752</x:v>
+        <x:v>113822</x:v>
       </x:c>
       <x:c r="BW4" s="4" t="n">
-        <x:v>117767</x:v>
+        <x:v>117840</x:v>
       </x:c>
       <x:c r="BX4" s="4" t="n">
-        <x:v>101342</x:v>
+        <x:v>101404</x:v>
       </x:c>
       <x:c r="BY4" s="4" t="n">
-        <x:v>118822</x:v>
+        <x:v>118896</x:v>
       </x:c>
       <x:c r="BZ4" s="4" t="n">
-        <x:v>124569</x:v>
+        <x:v>124646</x:v>
       </x:c>
       <x:c r="CA4" s="4" t="n">
-        <x:v>124573</x:v>
+        <x:v>124650</x:v>
       </x:c>
       <x:c r="CB4" s="4" t="n">
-        <x:v>108734</x:v>
+        <x:v>108801</x:v>
       </x:c>
       <x:c r="CC4" s="4" t="n">
-        <x:v>129463</x:v>
+        <x:v>129543</x:v>
       </x:c>
       <x:c r="CD4" s="4" t="n">
-        <x:v>133434</x:v>
+        <x:v>133517</x:v>
       </x:c>
       <x:c r="CE4" s="4" t="n">
-        <x:v>139126</x:v>
+        <x:v>139212</x:v>
       </x:c>
       <x:c r="CF4" s="4" t="n">
-        <x:v>119427</x:v>
+        <x:v>119501</x:v>
       </x:c>
       <x:c r="CG4" s="4" t="n">
-        <x:v>141312</x:v>
+        <x:v>141398</x:v>
       </x:c>
       <x:c r="CH4" s="4" t="n">
-        <x:v>134394</x:v>
+        <x:v>134477</x:v>
       </x:c>
       <x:c r="CI4" s="4" t="n">
-        <x:v>135936</x:v>
+        <x:v>136020</x:v>
       </x:c>
       <x:c r="CJ4" s="4" t="n">
-        <x:v>118128</x:v>
+        <x:v>118201</x:v>
       </x:c>
       <x:c r="CK4" s="4" t="n">
-        <x:v>140208</x:v>
+        <x:v>140295</x:v>
       </x:c>
       <x:c r="CL4" s="4" t="n">
-        <x:v>134883</x:v>
+        <x:v>134967</x:v>
       </x:c>
       <x:c r="CM4" s="4" t="n">
-        <x:v>144069</x:v>
+        <x:v>144158</x:v>
       </x:c>
       <x:c r="CN4" s="4" t="n">
-        <x:v>128149</x:v>
+        <x:v>128228</x:v>
       </x:c>
       <x:c r="CO4" s="4" t="n">
-        <x:v>145950</x:v>
+        <x:v>146040</x:v>
       </x:c>
       <x:c r="CP4" s="4" t="n">
-        <x:v>144490</x:v>
+        <x:v>144579</x:v>
       </x:c>
       <x:c r="CQ4" s="4" t="n">
-        <x:v>144593</x:v>
+        <x:v>144683</x:v>
       </x:c>
       <x:c r="CR4" s="4" t="n">
-        <x:v>136664</x:v>
+        <x:v>136748</x:v>
       </x:c>
       <x:c r="CS4" s="4" t="n">
-        <x:v>146348</x:v>
+        <x:v>146439</x:v>
       </x:c>
       <x:c r="CT4" s="4" t="n">
-        <x:v>147978</x:v>
+        <x:v>148069</x:v>
       </x:c>
       <x:c r="CU4" s="4" t="n">
-        <x:v>155793</x:v>
+        <x:v>155890</x:v>
       </x:c>
       <x:c r="CV4" s="4" t="n">
-        <x:v>142125</x:v>
+        <x:v>142213</x:v>
       </x:c>
       <x:c r="CW4" s="4" t="n">
-        <x:v>158721</x:v>
+        <x:v>158819</x:v>
       </x:c>
       <x:c r="CX4" s="4" t="n">
-        <x:v>148968</x:v>
+        <x:v>149060</x:v>
       </x:c>
       <x:c r="CY4" s="4" t="n">
-        <x:v>159524</x:v>
+        <x:v>159622</x:v>
       </x:c>
       <x:c r="CZ4" s="4" t="n">
-        <x:v>148540</x:v>
+        <x:v>148632</x:v>
       </x:c>
       <x:c r="DA4" s="4" t="n">
-        <x:v>165024</x:v>
+        <x:v>165127</x:v>
       </x:c>
       <x:c r="DB4" s="4" t="n">
-        <x:v>163816</x:v>
+        <x:v>163917</x:v>
       </x:c>
       <x:c r="DC4" s="4" t="n">
-        <x:v>168119</x:v>
+        <x:v>168223</x:v>
       </x:c>
       <x:c r="DD4" s="4" t="n">
-        <x:v>160239</x:v>
+        <x:v>160338</x:v>
       </x:c>
       <x:c r="DE4" s="4" t="n">
-        <x:v>175997</x:v>
+        <x:v>176107</x:v>
       </x:c>
       <x:c r="DF4" s="4" t="n">
-        <x:v>171889</x:v>
+        <x:v>171996</x:v>
       </x:c>
       <x:c r="DG4" s="4" t="n">
-        <x:v>172523</x:v>
+        <x:v>172630</x:v>
       </x:c>
       <x:c r="DH4" s="4" t="n">
-        <x:v>164273</x:v>
+        <x:v>164375</x:v>
       </x:c>
       <x:c r="DI4" s="4" t="n">
-        <x:v>186869</x:v>
+        <x:v>186984</x:v>
       </x:c>
       <x:c r="DJ4" s="4" t="n">
-        <x:v>171593</x:v>
+        <x:v>171700</x:v>
       </x:c>
       <x:c r="DK4" s="4" t="n">
-        <x:v>176248</x:v>
+        <x:v>176358</x:v>
       </x:c>
       <x:c r="DL4" s="4" t="n">
-        <x:v>163324</x:v>
+        <x:v>163426</x:v>
       </x:c>
       <x:c r="DM4" s="4" t="n">
-        <x:v>155458</x:v>
+        <x:v>155552</x:v>
       </x:c>
       <x:c r="DN4" s="4" t="n">
-        <x:v>131011</x:v>
+        <x:v>131092</x:v>
       </x:c>
       <x:c r="DO4" s="4" t="n">
-        <x:v>128377</x:v>
+        <x:v>128456</x:v>
       </x:c>
       <x:c r="DP4" s="4" t="n">
-        <x:v>124021</x:v>
+        <x:v>124097</x:v>
       </x:c>
       <x:c r="DQ4" s="4" t="n">
-        <x:v>128557</x:v>
+        <x:v>128638</x:v>
       </x:c>
       <x:c r="DR4" s="4" t="n">
-        <x:v>146243</x:v>
+        <x:v>146334</x:v>
       </x:c>
       <x:c r="DS4" s="4" t="n">
-        <x:v>156175</x:v>
+        <x:v>156272</x:v>
       </x:c>
       <x:c r="DT4" s="4" t="n">
-        <x:v>152330</x:v>
+        <x:v>152424</x:v>
       </x:c>
       <x:c r="DU4" s="4" t="n">
-        <x:v>167772</x:v>
+        <x:v>167875</x:v>
       </x:c>
       <x:c r="DV4" s="4" t="n">
-        <x:v>170609</x:v>
+        <x:v>170715</x:v>
       </x:c>
       <x:c r="DW4" s="4" t="n">
-        <x:v>165290</x:v>
+        <x:v>165392</x:v>
       </x:c>
       <x:c r="DX4" s="4" t="n">
-        <x:v>159586</x:v>
+        <x:v>159685</x:v>
       </x:c>
       <x:c r="DY4" s="4" t="n">
-        <x:v>163312</x:v>
+        <x:v>163412</x:v>
       </x:c>
       <x:c r="DZ4" s="4" t="n">
-        <x:v>158705</x:v>
+        <x:v>158803</x:v>
       </x:c>
       <x:c r="EA4" s="4" t="n">
-        <x:v>156907</x:v>
+        <x:v>157004</x:v>
       </x:c>
       <x:c r="EB4" s="4" t="n">
-        <x:v>149796</x:v>
+        <x:v>149889</x:v>
       </x:c>
       <x:c r="EC4" s="4" t="n">
-        <x:v>146253</x:v>
+        <x:v>146343</x:v>
       </x:c>
       <x:c r="ED4" s="4" t="n">
-        <x:v>151864</x:v>
+        <x:v>151958</x:v>
       </x:c>
       <x:c r="EE4" s="4" t="n">
-        <x:v>150108</x:v>
+        <x:v>150200</x:v>
       </x:c>
       <x:c r="EF4" s="4" t="n">
-        <x:v>140968</x:v>
+        <x:v>141055</x:v>
       </x:c>
       <x:c r="EG4" s="4" t="n">
-        <x:v>147558</x:v>
+        <x:v>147650</x:v>
       </x:c>
       <x:c r="EH4" s="4" t="n">
-        <x:v>147650</x:v>
+        <x:v>147741</x:v>
       </x:c>
       <x:c r="EI4" s="4" t="n">
-        <x:v>148916</x:v>
+        <x:v>149008</x:v>
       </x:c>
       <x:c r="EJ4" s="4" t="n">
-        <x:v>138239</x:v>
+        <x:v>138324</x:v>
       </x:c>
       <x:c r="EK4" s="4" t="n">
-        <x:v>148987</x:v>
+        <x:v>149080</x:v>
       </x:c>
       <x:c r="EL4" s="4" t="n">
-        <x:v>149241</x:v>
+        <x:v>149333</x:v>
       </x:c>
       <x:c r="EM4" s="4" t="n">
-        <x:v>158821</x:v>
+        <x:v>158919</x:v>
       </x:c>
       <x:c r="EN4" s="4" t="n">
-        <x:v>148346</x:v>
+        <x:v>148438</x:v>
       </x:c>
       <x:c r="EO4" s="4" t="n">
-        <x:v>159875</x:v>
+        <x:v>159974</x:v>
       </x:c>
       <x:c r="EP4" s="4" t="n">
-        <x:v>160036</x:v>
+        <x:v>160135</x:v>
       </x:c>
       <x:c r="EQ4" s="4" t="n">
-        <x:v>158005</x:v>
+        <x:v>158102</x:v>
       </x:c>
       <x:c r="ER4" s="4" t="n">
-        <x:v>144842</x:v>
+        <x:v>144932</x:v>
       </x:c>
       <x:c r="ES4" s="4" t="n">
-        <x:v>156248</x:v>
+        <x:v>156345</x:v>
       </x:c>
       <x:c r="ET4" s="4" t="n">
-        <x:v>166234</x:v>
+        <x:v>166337</x:v>
       </x:c>
       <x:c r="EU4" s="4" t="n">
-        <x:v>160168</x:v>
+        <x:v>160267</x:v>
       </x:c>
       <x:c r="EV4" s="4" t="n">
-        <x:v>150404</x:v>
+        <x:v>150497</x:v>
       </x:c>
       <x:c r="EW4" s="4" t="n">
-        <x:v>165608</x:v>
+        <x:v>165711</x:v>
       </x:c>
       <x:c r="EX4" s="4" t="n">
-        <x:v>174522</x:v>
+        <x:v>174631</x:v>
       </x:c>
       <x:c r="EY4" s="4" t="n">
-        <x:v>165797</x:v>
+        <x:v>165900</x:v>
       </x:c>
       <x:c r="EZ4" s="4" t="n">
-        <x:v>150889</x:v>
+        <x:v>150983</x:v>
       </x:c>
       <x:c r="FA4" s="4" t="n">
-        <x:v>166425</x:v>
+        <x:v>166526</x:v>
       </x:c>
       <x:c r="FB4" s="4" t="n">
-        <x:v>173093</x:v>
+        <x:v>173200</x:v>
       </x:c>
       <x:c r="FC4" s="4" t="n">
-        <x:v>163654</x:v>
+        <x:v>163755</x:v>
       </x:c>
       <x:c r="FD4" s="4" t="n">
-        <x:v>150631</x:v>
+        <x:v>150724</x:v>
       </x:c>
       <x:c r="FE4" s="4" t="n">
-        <x:v>158211</x:v>
+        <x:v>158310</x:v>
       </x:c>
       <x:c r="FF4" s="4" t="n">
-        <x:v>171520</x:v>
+        <x:v>171636</x:v>
       </x:c>
       <x:c r="FG4" s="4" t="n">
-        <x:v>125516</x:v>
+        <x:v>125583</x:v>
       </x:c>
       <x:c r="FH4" s="4" t="n">
-        <x:v>145942</x:v>
+        <x:v>145978</x:v>
       </x:c>
       <x:c r="FI4" s="4" t="n">
-        <x:v>161349</x:v>
+        <x:v>161599</x:v>
       </x:c>
       <x:c r="FJ4" s="4" t="n">
-        <x:v>174787</x:v>
+        <x:v>175245</x:v>
       </x:c>
       <x:c r="FK4" s="4" t="n">
-        <x:v>163320</x:v>
+        <x:v>163528</x:v>
       </x:c>
       <x:c r="FL4" s="4" t="n">
-        <x:v>151141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:168">
+        <x:v>151537</x:v>
+      </x:c>
+      <x:c r="FM4" s="4" t="n">
+        <x:v>168524</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:169">
       <x:c r="A6" s="5" t="s">
-        <x:v>170</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:168">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:169">
       <x:c r="A7" s="5" t="s">
-        <x:v>171</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:168">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:169">
       <x:c r="A8" s="5" t="s">
-        <x:v>172</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:168">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:169">
       <x:c r="A10" s="0" t="s">
-        <x:v>173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:168">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:169">
       <x:c r="A11" s="0" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:168">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:169">
       <x:c r="A13" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:168">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:169">
       <x:c r="A14" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:168">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:169">
       <x:c r="A16" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:168">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:169">
       <x:c r="A17" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:168">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:169">
       <x:c r="A18" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:168">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:169">
       <x:c r="A19" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:169">
+      <x:c r="A21" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:169">
+      <x:c r="A22" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:168">
-      <x:c r="A20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:168">
-      <x:c r="A21" s="0" t="s">
-        <x:v>181</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:168">
-      <x:c r="A22" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:168">
+    <x:row r="23" spans="1:169">
       <x:c r="A23" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:168">
-      <x:c r="A24" s="0" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:168">
-      <x:c r="A25" s="0" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:168">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:169">
       <x:c r="A28" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:168">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:169">
       <x:c r="A29" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:168">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:169">
       <x:c r="A31" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:168">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:169">
       <x:c r="A32" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:168">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:169">
       <x:c r="A34" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:168">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:169">
       <x:c r="A35" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:168">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:169">
       <x:c r="A38" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:168">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:169">
       <x:c r="A41" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:168">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:169">
       <x:c r="A43" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:168">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:169">
       <x:c r="A44" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:168">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:169">
       <x:c r="A46" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:168">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:169">
       <x:c r="A47" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="A6:FM6"/>
+    <x:mergeCell ref="A7:FM7"/>
+    <x:mergeCell ref="A8:FM8"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
